--- a/test/betabinomial.xlsx
+++ b/test/betabinomial.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="141">
   <si>
     <t xml:space="preserve"> -Infinity</t>
   </si>
@@ -614,6 +614,24 @@
   </si>
   <si>
     <t>log(B(a,b))</t>
+  </si>
+  <si>
+    <t>principal value</t>
+  </si>
+  <si>
+    <t>principal value (parallel)</t>
+  </si>
+  <si>
+    <t>parallel mirror</t>
+  </si>
+  <si>
+    <t>parallel's mirror</t>
+  </si>
+  <si>
+    <t>negative beta binomial</t>
+  </si>
+  <si>
+    <t>infinitely ideal class field</t>
   </si>
 </sst>
 </file>
@@ -624,13 +642,18 @@
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="20" formatCode="h:mm"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11.0"/>
       <name val="ＭＳ Ｐゴシック"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FFFF9900"/>
+      <name val="ＭＳ Ｐゴシック"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -667,8 +690,86 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99CC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CCFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC99FF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -832,11 +933,152 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="general" vertical="center"/>
       <protection/>
@@ -966,6 +1208,242 @@
       <protection/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
       <protection/>
     </xf>
@@ -982,10 +1460,10 @@
     <outlinePr/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="60">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="60">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1012,1607 +1490,1623 @@
     <col min="20" max="20" width="15.144810267857142" customWidth="1"/>
     <col min="21" max="21" width="15.144810267857142" customWidth="1"/>
     <col min="22" max="22" width="15.144810267857142" customWidth="1"/>
+    <col min="24" max="24" width="22.144810267857142" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="29">
+      <c r="B1" s="85">
         <v>-10.0</v>
       </c>
-      <c r="C1" s="29">
+      <c r="C1" s="85">
         <v>-9.0</v>
       </c>
-      <c r="D1" s="29">
+      <c r="D1" s="85">
         <v>-8.0</v>
       </c>
-      <c r="E1" s="29">
+      <c r="E1" s="85">
         <v>-7.0</v>
       </c>
-      <c r="F1" s="29">
+      <c r="F1" s="85">
         <v>-6.0</v>
       </c>
-      <c r="G1" s="29">
+      <c r="G1" s="85">
         <v>-5.0</v>
       </c>
-      <c r="H1" s="29">
+      <c r="H1" s="85">
         <v>-4.0</v>
       </c>
-      <c r="I1" s="29">
+      <c r="I1" s="85">
         <v>-3.0</v>
       </c>
-      <c r="J1" s="29">
+      <c r="J1" s="85">
         <v>-2.0</v>
       </c>
-      <c r="K1" s="29">
+      <c r="K1" s="85">
         <v>-1.0</v>
       </c>
-      <c r="L1" s="29">
+      <c r="L1" s="85">
         <v>0.0</v>
       </c>
-      <c r="M1" s="29">
+      <c r="M1" s="85">
         <v>1.0</v>
       </c>
-      <c r="N1" s="29">
+      <c r="N1" s="85">
         <v>2.0</v>
       </c>
-      <c r="O1" s="29">
+      <c r="O1" s="85">
         <v>3.0</v>
       </c>
-      <c r="P1" s="29">
+      <c r="P1" s="85">
         <v>4.0</v>
       </c>
-      <c r="Q1" s="29">
+      <c r="Q1" s="85">
         <v>5.0</v>
       </c>
-      <c r="R1" s="29">
+      <c r="R1" s="85">
         <v>6.0</v>
       </c>
-      <c r="S1" s="29">
+      <c r="S1" s="85">
         <v>7.0</v>
       </c>
-      <c r="T1" s="29">
+      <c r="T1" s="85">
         <v>8.0</v>
       </c>
-      <c r="U1" s="29">
+      <c r="U1" s="85">
         <v>9.0</v>
       </c>
-      <c r="V1" s="28">
+      <c r="V1" s="85">
         <v>10.0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="26">
+      <c r="A2" s="85">
         <v>-10.0</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="6" t="s">
+      <c r="B2" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="U2" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="V2" s="21" t="s">
+      <c r="V2" s="90" t="s">
         <v>60</v>
+      </c>
+      <c r="X2" s="54" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="26">
+      <c r="A3" s="85">
         <v>-9.0</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="6" t="s">
+      <c r="B3" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="Q3" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="S3" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="T3" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="U3" s="10" t="s">
+      <c r="U3" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="V3" s="20" t="s">
+      <c r="V3" s="89" t="s">
         <v>132</v>
+      </c>
+      <c r="X3" s="53" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="26">
+      <c r="A4" s="85">
         <v>-8.0</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="6" t="s">
+      <c r="B4" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="Q4" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="R4" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="S4" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="T4" s="10" t="s">
+      <c r="T4" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="U4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="V4" s="20" t="s">
-        <v>16</v>
+      <c r="U4" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="V4" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="X4" s="52" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="26">
+      <c r="A5" s="85">
         <v>-7.0</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="6" t="s">
+      <c r="B5" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="P5" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="Q5" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="R5" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="S5" s="10" t="s">
+      <c r="S5" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="T5" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="U5" s="6" t="s">
+      <c r="U5" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="V5" s="20" t="s">
+      <c r="V5" s="89" t="s">
         <v>132</v>
+      </c>
+      <c r="X5" s="51" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="26">
+      <c r="A6" s="85">
         <v>-6.0</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="6" t="s">
+      <c r="B6" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="10" t="s">
+      <c r="Q6" s="90" t="s">
         <v>103</v>
       </c>
-      <c r="R6" s="10" t="s">
+      <c r="R6" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="S6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="T6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="U6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="V6" s="20" t="s">
-        <v>16</v>
+      <c r="S6" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="U6" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="V6" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="X6" s="50" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="26">
+      <c r="A7" s="85">
         <v>-5.0</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" s="6" t="s">
+      <c r="B7" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N7" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="O7" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="P7" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="Q7" s="10" t="s">
+      <c r="Q7" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="R7" s="6" t="s">
+      <c r="R7" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="S7" s="6" t="s">
+      <c r="S7" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="T7" s="6" t="s">
+      <c r="T7" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="U7" s="6" t="s">
+      <c r="U7" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="V7" s="20" t="s">
+      <c r="V7" s="89" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="26">
+      <c r="A8" s="85">
         <v>-4.0</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" s="6" t="s">
+      <c r="B8" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="N8" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="10" t="s">
+      <c r="O8" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="P8" s="10" t="s">
+      <c r="P8" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="T8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="U8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="V8" s="20" t="s">
+      <c r="Q8" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="S8" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="T8" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="U8" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="V8" s="89" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="26">
+      <c r="A9" s="85">
         <v>-3.0</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" s="6" t="s">
+      <c r="B9" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="N9" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="O9" s="10" t="s">
+      <c r="O9" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="P9" s="6" t="s">
+      <c r="P9" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="Q9" s="6" t="s">
+      <c r="Q9" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="R9" s="6" t="s">
+      <c r="R9" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="S9" s="6" t="s">
+      <c r="S9" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="T9" s="6" t="s">
+      <c r="T9" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="U9" s="6" t="s">
+      <c r="U9" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="V9" s="20" t="s">
+      <c r="V9" s="89" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="26">
+      <c r="A10" s="85">
         <v>-2.0</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" s="6" t="s">
+      <c r="B10" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="N10" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="O10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="T10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="U10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="V10" s="20" t="s">
+      <c r="O10" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="R10" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="S10" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="T10" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="U10" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="V10" s="89" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="26">
+      <c r="A11" s="85">
         <v>-1.0</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M11" s="10" t="s">
+      <c r="B11" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="N11" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="O11" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="P11" s="6" t="s">
+      <c r="P11" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="Q11" s="6" t="s">
+      <c r="Q11" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="R11" s="6" t="s">
+      <c r="R11" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="S11" s="6" t="s">
+      <c r="S11" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="T11" s="6" t="s">
+      <c r="T11" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="U11" s="6" t="s">
+      <c r="U11" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="V11" s="20" t="s">
+      <c r="V11" s="89" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="26">
+      <c r="A12" s="85">
         <v>0.0</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="R12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="S12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="T12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="U12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="V12" s="19" t="s">
+      <c r="B12" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="R12" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="S12" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="T12" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="U12" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="V12" s="87" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="26">
+      <c r="A13" s="85">
         <v>1.0</v>
       </c>
-      <c r="B13" s="32" t="str">
+      <c r="B13" s="88" t="str">
         <f>M2</f>
         <v>"-ln(10)+iπ"</v>
       </c>
-      <c r="C13" s="32" t="str">
+      <c r="C13" s="88" t="str">
         <f>M3</f>
         <v>"-ln(9)+iπ"</v>
       </c>
-      <c r="D13" s="32" t="str">
+      <c r="D13" s="88" t="str">
         <f>M4</f>
         <v>"-ln(8)+iπ"</v>
       </c>
-      <c r="E13" s="32" t="str">
+      <c r="E13" s="88" t="str">
         <f>M5</f>
         <v>"-ln(7)+iπ"</v>
       </c>
-      <c r="F13" s="32" t="str">
+      <c r="F13" s="88" t="str">
         <f>M6</f>
         <v>"-ln(6)+iπ"</v>
       </c>
-      <c r="G13" s="32" t="str">
+      <c r="G13" s="88" t="str">
         <f>M7</f>
         <v>"-ln(5)+iπ"</v>
       </c>
-      <c r="H13" s="32" t="str">
+      <c r="H13" s="88" t="str">
         <f>M8</f>
         <v>"-ln(4)+iπ"</v>
       </c>
-      <c r="I13" s="32" t="str">
+      <c r="I13" s="88" t="str">
         <f>M9</f>
         <v>"-ln(3)+iπ"</v>
       </c>
-      <c r="J13" s="32" t="str">
+      <c r="J13" s="88" t="str">
         <f>M10</f>
         <v>"-ln(2)+iπ"</v>
       </c>
-      <c r="K13" s="32" t="str">
+      <c r="K13" s="88" t="str">
         <f>M11</f>
         <v>"iπ"</v>
       </c>
-      <c r="L13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M13" s="9" t="s">
+      <c r="L13" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="N13" s="9" t="s">
+      <c r="N13" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="O13" s="9" t="s">
+      <c r="O13" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="P13" s="9" t="s">
+      <c r="P13" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="Q13" s="9" t="s">
+      <c r="Q13" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="R13" s="9" t="s">
+      <c r="R13" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="S13" s="9" t="s">
+      <c r="S13" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="T13" s="9" t="s">
+      <c r="T13" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="U13" s="9" t="s">
+      <c r="U13" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="V13" s="17" t="s">
+      <c r="V13" s="84" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="26">
+      <c r="A14" s="85">
         <v>2.0</v>
       </c>
-      <c r="B14" s="32" t="str">
+      <c r="B14" s="88" t="str">
         <f>N2</f>
         <v>"-ln(90)"</v>
       </c>
-      <c r="C14" s="32" t="str">
+      <c r="C14" s="88" t="str">
         <f>N3</f>
         <v>"-ln(72)"</v>
       </c>
-      <c r="D14" s="32" t="str">
+      <c r="D14" s="88" t="str">
         <f>N4</f>
         <v>"-ln(56)"</v>
       </c>
-      <c r="E14" s="32" t="str">
+      <c r="E14" s="88" t="str">
         <f>N5</f>
         <v>"-ln(42)"</v>
       </c>
-      <c r="F14" s="32" t="str">
+      <c r="F14" s="88" t="str">
         <f>N6</f>
         <v>"-ln(30)"</v>
       </c>
-      <c r="G14" s="32" t="str">
+      <c r="G14" s="88" t="str">
         <f>N7</f>
         <v>"-ln(20)"</v>
       </c>
-      <c r="H14" s="32" t="str">
+      <c r="H14" s="88" t="str">
         <f>N8</f>
         <v>"-ln(12)"</v>
       </c>
-      <c r="I14" s="32" t="str">
+      <c r="I14" s="88" t="str">
         <f>N9</f>
         <v>"-ln(6)"</v>
       </c>
-      <c r="J14" s="32" t="str">
+      <c r="J14" s="88" t="str">
         <f>N10</f>
         <v>"-ln(2)"</v>
       </c>
-      <c r="K14" s="32" t="str">
+      <c r="K14" s="88" t="str">
         <f>N11</f>
         <v>∞+iπ</v>
       </c>
-      <c r="L14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M14" s="6" t="s">
+      <c r="L14" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="N14" s="9" t="s">
+      <c r="N14" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="O14" s="9" t="s">
+      <c r="O14" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="P14" s="9" t="s">
+      <c r="P14" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="Q14" s="9" t="s">
+      <c r="Q14" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="R14" s="9" t="s">
+      <c r="R14" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="S14" s="9" t="s">
+      <c r="S14" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="T14" s="9" t="s">
+      <c r="T14" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="U14" s="9" t="s">
+      <c r="U14" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="V14" s="17" t="s">
+      <c r="V14" s="84" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="26">
+      <c r="A15" s="85">
         <v>3.0</v>
       </c>
-      <c r="B15" s="32" t="str">
+      <c r="B15" s="88" t="str">
         <f>O2</f>
         <v>"-ln(360)+iπ"</v>
       </c>
-      <c r="C15" s="32" t="str">
+      <c r="C15" s="88" t="str">
         <f>O3</f>
         <v>"-ln(252)+iπ"</v>
       </c>
-      <c r="D15" s="32" t="str">
+      <c r="D15" s="88" t="str">
         <f>O4</f>
         <v>"-ln(168)+iπ"</v>
       </c>
-      <c r="E15" s="32" t="str">
+      <c r="E15" s="88" t="str">
         <f>O5</f>
         <v>"-ln(105)+iπ"</v>
       </c>
-      <c r="F15" s="32" t="str">
+      <c r="F15" s="88" t="str">
         <f>O6</f>
         <v>"-ln(60)+iπ"</v>
       </c>
-      <c r="G15" s="32" t="str">
+      <c r="G15" s="88" t="str">
         <f>O7</f>
         <v>"-ln(30)+iπ"</v>
       </c>
-      <c r="H15" s="32" t="str">
+      <c r="H15" s="88" t="str">
         <f>O8</f>
         <v>"-ln(12)+iπ"</v>
       </c>
-      <c r="I15" s="32" t="str">
+      <c r="I15" s="88" t="str">
         <f>O9</f>
         <v>"-ln(3)+iπ"</v>
       </c>
-      <c r="J15" s="32" t="str">
+      <c r="J15" s="88" t="str">
         <f>O10</f>
         <v>∞</v>
       </c>
-      <c r="K15" s="32" t="str">
+      <c r="K15" s="88" t="str">
         <f>O11</f>
         <v>∞+iπ</v>
       </c>
-      <c r="L15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M15" s="6" t="s">
+      <c r="L15" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="N15" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="O15" s="9" t="s">
+      <c r="O15" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="P15" s="9" t="s">
+      <c r="P15" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="Q15" s="9" t="s">
+      <c r="Q15" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="R15" s="9" t="s">
+      <c r="R15" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="S15" s="9" t="s">
+      <c r="S15" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="T15" s="9" t="s">
+      <c r="T15" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="U15" s="9" t="s">
+      <c r="U15" s="84" t="s">
         <v>106</v>
       </c>
-      <c r="V15" s="17" t="s">
+      <c r="V15" s="84" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="26">
+      <c r="A16" s="85">
         <v>4.0</v>
       </c>
-      <c r="B16" s="32" t="str">
+      <c r="B16" s="88" t="str">
         <f>P2</f>
         <v>"-ln(840)"</v>
       </c>
-      <c r="C16" s="32" t="str">
+      <c r="C16" s="88" t="str">
         <f>P3</f>
         <v>"-ln(504)"</v>
       </c>
-      <c r="D16" s="32" t="str">
+      <c r="D16" s="88" t="str">
         <f>P4</f>
         <v>"-ln(280)"</v>
       </c>
-      <c r="E16" s="32" t="str">
+      <c r="E16" s="88" t="str">
         <f>P5</f>
         <v>"-ln(140)"</v>
       </c>
-      <c r="F16" s="32" t="str">
+      <c r="F16" s="88" t="str">
         <f>P6</f>
         <v>"-ln(60)"</v>
       </c>
-      <c r="G16" s="32" t="str">
+      <c r="G16" s="88" t="str">
         <f>P7</f>
         <v>"-ln(20)"</v>
       </c>
-      <c r="H16" s="32" t="str">
+      <c r="H16" s="88" t="str">
         <f>P8</f>
         <v>"-ln(4)"</v>
       </c>
-      <c r="I16" s="32" t="str">
+      <c r="I16" s="88" t="str">
         <f>P9</f>
         <v>∞+iπ</v>
       </c>
-      <c r="J16" s="32" t="str">
+      <c r="J16" s="88" t="str">
         <f>P10</f>
         <v>∞</v>
       </c>
-      <c r="K16" s="32" t="str">
+      <c r="K16" s="88" t="str">
         <f>P11</f>
         <v>∞+iπ</v>
       </c>
-      <c r="L16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M16" s="6" t="s">
+      <c r="L16" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="N16" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="O16" s="6" t="s">
+      <c r="O16" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="P16" s="9" t="s">
+      <c r="P16" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="Q16" s="9" t="s">
+      <c r="Q16" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="R16" s="9" t="s">
+      <c r="R16" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="S16" s="9" t="s">
+      <c r="S16" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="T16" s="9" t="s">
+      <c r="T16" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="U16" s="9" t="s">
+      <c r="U16" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="V16" s="17" t="s">
+      <c r="V16" s="84" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="26">
+      <c r="A17" s="85">
         <v>5.0</v>
       </c>
-      <c r="B17" s="32" t="str">
+      <c r="B17" s="88" t="str">
         <f>Q2</f>
         <v>"-ln(1260)+iπ"</v>
       </c>
-      <c r="C17" s="32" t="str">
+      <c r="C17" s="88" t="str">
         <f>Q3</f>
         <v>"-ln(630)+iπ"</v>
       </c>
-      <c r="D17" s="32" t="str">
+      <c r="D17" s="88" t="str">
         <f>Q4</f>
         <v>"-ln(280)+iπ"</v>
       </c>
-      <c r="E17" s="32" t="str">
+      <c r="E17" s="88" t="str">
         <f>Q5</f>
         <v>"-ln(150)+iπ"</v>
       </c>
-      <c r="F17" s="32" t="str">
+      <c r="F17" s="88" t="str">
         <f>Q6</f>
         <v>"-ln(30)+iπ"</v>
       </c>
-      <c r="G17" s="32" t="str">
+      <c r="G17" s="88" t="str">
         <f>Q7</f>
         <v>"-ln(5)+iπ"</v>
       </c>
-      <c r="H17" s="32" t="str">
+      <c r="H17" s="88" t="str">
         <f>Q8</f>
         <v>∞</v>
       </c>
-      <c r="I17" s="32" t="str">
+      <c r="I17" s="88" t="str">
         <f>Q9</f>
         <v>∞+iπ</v>
       </c>
-      <c r="J17" s="32" t="str">
+      <c r="J17" s="88" t="str">
         <f>Q10</f>
         <v>∞</v>
       </c>
-      <c r="K17" s="32" t="str">
+      <c r="K17" s="88" t="str">
         <f>Q11</f>
         <v>∞+iπ</v>
       </c>
-      <c r="L17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M17" s="6" t="s">
+      <c r="L17" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="N17" s="6" t="s">
+      <c r="N17" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="O17" s="6" t="s">
+      <c r="O17" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="P17" s="6" t="s">
+      <c r="P17" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="Q17" s="9" t="s">
+      <c r="Q17" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="R17" s="9" t="s">
+      <c r="R17" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="S17" s="9" t="s">
+      <c r="S17" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="T17" s="9" t="s">
+      <c r="T17" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="U17" s="9" t="s">
+      <c r="U17" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="V17" s="17" t="s">
+      <c r="V17" s="84" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="26">
+      <c r="A18" s="85">
         <v>6.0</v>
       </c>
-      <c r="B18" s="32" t="str">
+      <c r="B18" s="88" t="str">
         <f>R2</f>
         <v>"-ln(1260)"</v>
       </c>
-      <c r="C18" s="32" t="str">
+      <c r="C18" s="88" t="str">
         <f>R3</f>
         <v>"-ln(504)"</v>
       </c>
-      <c r="D18" s="32" t="str">
+      <c r="D18" s="88" t="str">
         <f>R4</f>
         <v>"-ln(168)"</v>
       </c>
-      <c r="E18" s="32" t="str">
+      <c r="E18" s="88" t="str">
         <f>R5</f>
         <v>"-ln(42)"</v>
       </c>
-      <c r="F18" s="32" t="str">
+      <c r="F18" s="88" t="str">
         <f>R6</f>
         <v>"-ln(6)"</v>
       </c>
-      <c r="G18" s="32" t="str">
+      <c r="G18" s="88" t="str">
         <f>R7</f>
         <v>∞+iπ</v>
       </c>
-      <c r="H18" s="32" t="str">
+      <c r="H18" s="88" t="str">
         <f>R8</f>
         <v>∞</v>
       </c>
-      <c r="I18" s="32" t="str">
+      <c r="I18" s="88" t="str">
         <f>R9</f>
         <v>∞+iπ</v>
       </c>
-      <c r="J18" s="32" t="str">
+      <c r="J18" s="88" t="str">
         <f>R10</f>
         <v>∞</v>
       </c>
-      <c r="K18" s="32" t="str">
+      <c r="K18" s="88" t="str">
         <f>R11</f>
         <v>∞+iπ</v>
       </c>
-      <c r="L18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M18" s="6" t="s">
+      <c r="L18" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="N18" s="6" t="s">
+      <c r="N18" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="O18" s="6" t="s">
+      <c r="O18" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="P18" s="6" t="s">
+      <c r="P18" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="Q18" s="6" t="s">
+      <c r="Q18" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="R18" s="9" t="s">
+      <c r="R18" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="S18" s="9" t="s">
+      <c r="S18" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="T18" s="9" t="s">
+      <c r="T18" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="U18" s="9" t="s">
+      <c r="U18" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="V18" s="17" t="s">
+      <c r="V18" s="84" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="26">
+      <c r="A19" s="85">
         <v>7.0</v>
       </c>
-      <c r="B19" s="32" t="str">
+      <c r="B19" s="88" t="str">
         <f>S2</f>
         <v>"-ln(840)+iπ"</v>
       </c>
-      <c r="C19" s="32" t="str">
+      <c r="C19" s="88" t="str">
         <f>S3</f>
         <v>"-ln(252)+iπ"</v>
       </c>
-      <c r="D19" s="32" t="str">
+      <c r="D19" s="88" t="str">
         <f>S4</f>
         <v>"-ln(56)+iπ"</v>
       </c>
-      <c r="E19" s="32" t="str">
+      <c r="E19" s="88" t="str">
         <f>S5</f>
         <v>"-ln(7)+iπ"</v>
       </c>
-      <c r="F19" s="32" t="str">
+      <c r="F19" s="88" t="str">
         <f>S6</f>
         <v>∞</v>
       </c>
-      <c r="G19" s="32" t="str">
+      <c r="G19" s="88" t="str">
         <f>S7</f>
         <v>∞+iπ</v>
       </c>
-      <c r="H19" s="32" t="str">
+      <c r="H19" s="88" t="str">
         <f>S8</f>
         <v>∞</v>
       </c>
-      <c r="I19" s="32" t="str">
+      <c r="I19" s="88" t="str">
         <f>S9</f>
         <v>∞+iπ</v>
       </c>
-      <c r="J19" s="32" t="str">
+      <c r="J19" s="88" t="str">
         <f>S10</f>
         <v>∞</v>
       </c>
-      <c r="K19" s="32" t="str">
+      <c r="K19" s="88" t="str">
         <f>S11</f>
         <v>∞+iπ</v>
       </c>
-      <c r="L19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M19" s="6" t="s">
+      <c r="L19" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="N19" s="6" t="s">
+      <c r="N19" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="O19" s="6" t="s">
+      <c r="O19" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="P19" s="6" t="s">
+      <c r="P19" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="Q19" s="6" t="s">
+      <c r="Q19" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="R19" s="6" t="s">
+      <c r="R19" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="S19" s="9" t="s">
+      <c r="S19" s="84" t="s">
         <v>120</v>
       </c>
-      <c r="T19" s="9" t="s">
+      <c r="T19" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="U19" s="9" t="s">
+      <c r="U19" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="V19" s="17" t="s">
+      <c r="V19" s="84" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="26">
+      <c r="A20" s="85">
         <v>8.0</v>
       </c>
-      <c r="B20" s="32" t="str">
+      <c r="B20" s="88" t="str">
         <f>T2</f>
         <v>"-ln(360)"</v>
       </c>
-      <c r="C20" s="32" t="str">
+      <c r="C20" s="88" t="str">
         <f>T3</f>
         <v>"-ln(72)"</v>
       </c>
-      <c r="D20" s="32" t="str">
+      <c r="D20" s="88" t="str">
         <f>T4</f>
         <v>"-ln(8)"</v>
       </c>
-      <c r="E20" s="32" t="str">
+      <c r="E20" s="88" t="str">
         <f>T5</f>
         <v>∞+iπ</v>
       </c>
-      <c r="F20" s="32" t="str">
+      <c r="F20" s="88" t="str">
         <f>T6</f>
         <v>∞</v>
       </c>
-      <c r="G20" s="32" t="str">
+      <c r="G20" s="88" t="str">
         <f>T7</f>
         <v>∞+iπ</v>
       </c>
-      <c r="H20" s="32" t="str">
+      <c r="H20" s="88" t="str">
         <f>T8</f>
         <v>∞</v>
       </c>
-      <c r="I20" s="32" t="str">
+      <c r="I20" s="88" t="str">
         <f>T9</f>
         <v>∞+iπ</v>
       </c>
-      <c r="J20" s="32" t="str">
+      <c r="J20" s="88" t="str">
         <f>T10</f>
         <v>∞</v>
       </c>
-      <c r="K20" s="32" t="str">
+      <c r="K20" s="88" t="str">
         <f>T11</f>
         <v>∞+iπ</v>
       </c>
-      <c r="L20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M20" s="6" t="s">
+      <c r="L20" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="N20" s="6" t="s">
+      <c r="N20" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="O20" s="6" t="s">
+      <c r="O20" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="P20" s="6" t="s">
+      <c r="P20" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="Q20" s="6" t="s">
+      <c r="Q20" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="R20" s="6" t="s">
+      <c r="R20" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="S20" s="6" t="s">
+      <c r="S20" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="T20" s="9" t="s">
+      <c r="T20" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="U20" s="9" t="s">
+      <c r="U20" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="V20" s="17" t="s">
+      <c r="V20" s="84" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="26">
+      <c r="A21" s="85">
         <v>9.0</v>
       </c>
-      <c r="B21" s="32" t="str">
+      <c r="B21" s="88" t="str">
         <f>U2</f>
         <v>"-ln(90)+iπ"</v>
       </c>
-      <c r="C21" s="32" t="str">
+      <c r="C21" s="88" t="str">
         <f>U3</f>
         <v>"-ln(9)+iπ"</v>
       </c>
-      <c r="D21" s="32" t="str">
+      <c r="D21" s="88" t="str">
         <f>U4</f>
         <v>∞</v>
       </c>
-      <c r="E21" s="32" t="str">
+      <c r="E21" s="88" t="str">
         <f>U5</f>
         <v>∞+iπ</v>
       </c>
-      <c r="F21" s="32" t="str">
+      <c r="F21" s="88" t="str">
         <f>U6</f>
         <v>∞</v>
       </c>
-      <c r="G21" s="32" t="str">
+      <c r="G21" s="88" t="str">
         <f>U7</f>
         <v>∞+iπ</v>
       </c>
-      <c r="H21" s="32" t="str">
+      <c r="H21" s="88" t="str">
         <f>U8</f>
         <v>∞</v>
       </c>
-      <c r="I21" s="32" t="str">
+      <c r="I21" s="88" t="str">
         <f>U9</f>
         <v>∞+iπ</v>
       </c>
-      <c r="J21" s="32" t="str">
+      <c r="J21" s="88" t="str">
         <f>U10</f>
         <v>∞</v>
       </c>
-      <c r="K21" s="32" t="str">
+      <c r="K21" s="88" t="str">
         <f>U11</f>
         <v>∞+iπ</v>
       </c>
-      <c r="L21" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M21" s="6" t="s">
+      <c r="L21" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="N21" s="6" t="s">
+      <c r="N21" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="O21" s="6" t="s">
+      <c r="O21" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="P21" s="6" t="s">
+      <c r="P21" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="Q21" s="6" t="s">
+      <c r="Q21" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="R21" s="6" t="s">
+      <c r="R21" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="S21" s="6" t="s">
+      <c r="S21" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="T21" s="6" t="s">
+      <c r="T21" s="85" t="s">
         <v>126</v>
       </c>
-      <c r="U21" s="9" t="s">
+      <c r="U21" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="V21" s="17" t="s">
+      <c r="V21" s="84" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="25">
+      <c r="A22" s="85">
         <v>10.0</v>
       </c>
-      <c r="B22" s="31" t="str">
+      <c r="B22" s="88" t="str">
         <f>V2</f>
         <v>"-ln(10)"</v>
       </c>
-      <c r="C22" s="31" t="str">
+      <c r="C22" s="88" t="str">
         <f>V3</f>
         <v>∞+iπ</v>
       </c>
-      <c r="D22" s="31" t="str">
+      <c r="D22" s="88" t="str">
         <f>V4</f>
         <v>∞</v>
       </c>
-      <c r="E22" s="31" t="str">
+      <c r="E22" s="88" t="str">
         <f>V5</f>
         <v>∞+iπ</v>
       </c>
-      <c r="F22" s="31" t="str">
+      <c r="F22" s="88" t="str">
         <f>V6</f>
         <v>∞</v>
       </c>
-      <c r="G22" s="31" t="str">
+      <c r="G22" s="88" t="str">
         <f>V7</f>
         <v>∞+iπ</v>
       </c>
-      <c r="H22" s="31" t="str">
+      <c r="H22" s="88" t="str">
         <f>V8</f>
         <v>∞</v>
       </c>
-      <c r="I22" s="31" t="str">
+      <c r="I22" s="88" t="str">
         <f>V9</f>
         <v>∞+iπ</v>
       </c>
-      <c r="J22" s="31" t="str">
+      <c r="J22" s="88" t="str">
         <f>V10</f>
         <v>∞</v>
       </c>
-      <c r="K22" s="31" t="str">
+      <c r="K22" s="88" t="str">
         <f>V11</f>
         <v>∞+iπ</v>
       </c>
-      <c r="L22" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="M22" s="13" t="s">
+      <c r="L22" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="M22" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="N22" s="13" t="s">
+      <c r="N22" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="O22" s="13" t="s">
+      <c r="O22" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="P22" s="13" t="s">
+      <c r="P22" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="Q22" s="13" t="s">
+      <c r="Q22" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="R22" s="13" t="s">
+      <c r="R22" s="85" t="s">
         <v>119</v>
       </c>
-      <c r="S22" s="13" t="s">
+      <c r="S22" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="T22" s="14" t="s">
+      <c r="T22" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="U22" s="13" t="s">
+      <c r="U22" s="85" t="s">
         <v>129</v>
       </c>
-      <c r="V22" s="12" t="s">
+      <c r="V22" s="84" t="s">
         <v>130</v>
       </c>
     </row>
   </sheetData>
   <printOptions/>
-  <pageMargins left="0.7204195349121093" right="0.7204195349121093" top="0.947920440673828" bottom="0.947920440673828" footer="0.4929186291503906" header="0.4929186291503906"/>
+  <pageMargins left="0.7114142907257078" right="0.7114142907257078" top="0.936071435165405" bottom="0.936071435165405" footer="0.48675714628601063" header="0.48675714628601063"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
